--- a/exercise_generation/gt_test_case_generation/analyze_data/code_details.xlsx
+++ b/exercise_generation/gt_test_case_generation/analyze_data/code_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nischal/myfiles/UMass_research/cs_education_project/gt_test_case_generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00368682-AF09-7C43-B819-D133014A8AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC89E829-55F9-C242-A691-4562433FA8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68640" yWindow="-780" windowWidth="51200" windowHeight="21600" xr2:uid="{2DC2DFE2-C2E4-4642-97FD-3DCB7FFE6002}"/>
+    <workbookView xWindow="30240" yWindow="-1960" windowWidth="38400" windowHeight="21600" xr2:uid="{2DC2DFE2-C2E4-4642-97FD-3DCB7FFE6002}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="67">
   <si>
     <t>AssignmentID</t>
   </si>
@@ -170,33 +170,12 @@
     <t>int</t>
   </si>
   <si>
-    <t xml:space="preserve">int </t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
-    <t>int temperature; boolean isSummer</t>
-  </si>
-  <si>
-    <t>int speed; boolean isBirthday</t>
-  </si>
-  <si>
-    <t>int day; boolean vacation</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>int cigars; boolean isWeekend</t>
-  </si>
-  <si>
-    <t>int you; int date</t>
-  </si>
-  <si>
-    <t>String str; int n</t>
-  </si>
-  <si>
     <t>String str, String word</t>
   </si>
   <si>
@@ -210,6 +189,54 @@
   </si>
   <si>
     <t>string array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int n, boolean outsideMode </t>
+  </si>
+  <si>
+    <t>boolean isMorning, boolean isMom, boolean isAsleep</t>
+  </si>
+  <si>
+    <t>int temperature, boolean isSummer</t>
+  </si>
+  <si>
+    <t>int speed, boolean isBirthday</t>
+  </si>
+  <si>
+    <t>int day, boolean vacation</t>
+  </si>
+  <si>
+    <t>int a, int b</t>
+  </si>
+  <si>
+    <t>int cigars, boolean isWeekend</t>
+  </si>
+  <si>
+    <t>int you, int date</t>
+  </si>
+  <si>
+    <t>int a, int b, int c</t>
+  </si>
+  <si>
+    <t>String str</t>
+  </si>
+  <si>
+    <t>int small, int big, int goal</t>
+  </si>
+  <si>
+    <t>String str, int n</t>
+  </si>
+  <si>
+    <t>String a, String b</t>
+  </si>
+  <si>
+    <t>int[] nums</t>
+  </si>
+  <si>
+    <t>int n</t>
+  </si>
+  <si>
+    <t>int start, int end</t>
   </si>
 </sst>
 </file>
@@ -303,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -322,7 +349,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -641,7 +667,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,6 +675,7 @@
     <col min="1" max="1" width="12.6640625"/>
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -681,10 +708,10 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
       </c>
       <c r="E2" t="s">
@@ -704,11 +731,11 @@
       <c r="B3" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
         <v>44</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -727,11 +754,11 @@
       <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>45</v>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -750,11 +777,11 @@
       <c r="B5" s="2">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>45</v>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -773,10 +800,10 @@
       <c r="B6" s="2">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
@@ -796,11 +823,11 @@
       <c r="B7" s="2">
         <v>232</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>49</v>
+      <c r="C7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -819,11 +846,11 @@
       <c r="B8" s="2">
         <v>233</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>45</v>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -842,11 +869,11 @@
       <c r="B9" s="2">
         <v>234</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>45</v>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -865,10 +892,10 @@
       <c r="B10" s="2">
         <v>235</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
         <v>43</v>
       </c>
       <c r="E10" t="s">
@@ -888,10 +915,10 @@
       <c r="B11" s="2">
         <v>236</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
         <v>43</v>
       </c>
       <c r="E11" t="s">
@@ -911,10 +938,10 @@
       <c r="B12" s="3">
         <v>17</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
         <v>43</v>
       </c>
       <c r="E12" t="s">
@@ -934,10 +961,10 @@
       <c r="B13" s="3">
         <v>20</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
         <v>43</v>
       </c>
       <c r="E13" t="s">
@@ -957,10 +984,10 @@
       <c r="B14" s="3">
         <v>21</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
         <v>43</v>
       </c>
       <c r="E14" t="s">
@@ -980,10 +1007,10 @@
       <c r="B15" s="3">
         <v>22</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
         <v>43</v>
       </c>
       <c r="E15" t="s">
@@ -1003,10 +1030,10 @@
       <c r="B16" s="3">
         <v>24</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
         <v>43</v>
       </c>
       <c r="E16" t="s">
@@ -1026,10 +1053,10 @@
       <c r="B17" s="3">
         <v>25</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
         <v>43</v>
       </c>
       <c r="E17" t="s">
@@ -1049,11 +1076,11 @@
       <c r="B18" s="3">
         <v>28</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>49</v>
+      <c r="C18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -1072,10 +1099,10 @@
       <c r="B19" s="3">
         <v>100</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
         <v>43</v>
       </c>
       <c r="E19" t="s">
@@ -1095,11 +1122,11 @@
       <c r="B20" s="3">
         <v>101</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>45</v>
+      <c r="C20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -1118,11 +1145,11 @@
       <c r="B21" s="3">
         <v>102</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>49</v>
+      <c r="C21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -1141,11 +1168,11 @@
       <c r="B22" s="4">
         <v>31</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>49</v>
+      <c r="C22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -1164,11 +1191,11 @@
       <c r="B23" s="4">
         <v>32</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>49</v>
+      <c r="C23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
       </c>
       <c r="E23" t="s">
         <v>24</v>
@@ -1187,11 +1214,11 @@
       <c r="B24" s="4">
         <v>33</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>49</v>
+      <c r="C24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
@@ -1210,11 +1237,11 @@
       <c r="B25" s="4">
         <v>34</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>49</v>
+      <c r="C25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1233,10 +1260,10 @@
       <c r="B26" s="4">
         <v>36</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
         <v>43</v>
       </c>
       <c r="E26" t="s">
@@ -1256,11 +1283,11 @@
       <c r="B27" s="4">
         <v>37</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>45</v>
+      <c r="C27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
@@ -1279,11 +1306,11 @@
       <c r="B28" s="4">
         <v>38</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>45</v>
+      <c r="C28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
@@ -1302,11 +1329,11 @@
       <c r="B29" s="4">
         <v>39</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>45</v>
+      <c r="C29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
@@ -1325,11 +1352,11 @@
       <c r="B30" s="4">
         <v>40</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>49</v>
+      <c r="C30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
       </c>
       <c r="E30" t="s">
         <v>23</v>
@@ -1348,11 +1375,11 @@
       <c r="B31" s="4">
         <v>128</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>45</v>
+      <c r="C31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
       </c>
       <c r="E31" t="s">
         <v>27</v>
@@ -1371,10 +1398,10 @@
       <c r="B32" s="5">
         <v>41</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="C32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
         <v>43</v>
       </c>
       <c r="E32" t="s">
@@ -1394,11 +1421,11 @@
       <c r="B33" s="5">
         <v>43</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>54</v>
+      <c r="C33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -1417,10 +1444,10 @@
       <c r="B34" s="5">
         <v>44</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
         <v>43</v>
       </c>
       <c r="E34" t="s">
@@ -1440,11 +1467,11 @@
       <c r="B35" s="5">
         <v>46</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>45</v>
+      <c r="C35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
       </c>
       <c r="E35" t="s">
         <v>27</v>
@@ -1463,10 +1490,10 @@
       <c r="B36" s="5">
         <v>49</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
         <v>43</v>
       </c>
       <c r="E36" t="s">
@@ -1486,11 +1513,11 @@
       <c r="B37" s="5">
         <v>67</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>45</v>
+      <c r="C37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
@@ -1509,11 +1536,11 @@
       <c r="B38" s="5">
         <v>104</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>54</v>
+      <c r="C38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E38" t="s">
         <v>31</v>
@@ -1532,11 +1559,11 @@
       <c r="B39" s="5">
         <v>106</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>45</v>
+      <c r="C39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
       </c>
       <c r="E39" t="s">
         <v>32</v>
@@ -1555,10 +1582,10 @@
       <c r="B40" s="5">
         <v>107</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
         <v>43</v>
       </c>
       <c r="E40" t="s">
@@ -1578,11 +1605,11 @@
       <c r="B41" s="5">
         <v>108</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>54</v>
+      <c r="C41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
       </c>
       <c r="E41" t="s">
         <v>33</v>
@@ -1601,10 +1628,10 @@
       <c r="B42" s="6">
         <v>45</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
         <v>43</v>
       </c>
       <c r="E42" t="s">
@@ -1624,11 +1651,11 @@
       <c r="B43" s="6">
         <v>48</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>54</v>
+      <c r="C43" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
       </c>
       <c r="E43" t="s">
         <v>34</v>
@@ -1647,11 +1674,11 @@
       <c r="B44" s="6">
         <v>51</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>54</v>
+      <c r="C44" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
       </c>
       <c r="E44" t="s">
         <v>23</v>
@@ -1670,10 +1697,10 @@
       <c r="B45" s="6">
         <v>56</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
         <v>43</v>
       </c>
       <c r="E45" t="s">
@@ -1693,11 +1720,11 @@
       <c r="B46" s="6">
         <v>57</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>54</v>
+      <c r="C46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -1716,11 +1743,11 @@
       <c r="B47" s="6">
         <v>64</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>57</v>
+      <c r="C47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
       </c>
       <c r="E47" t="s">
         <v>37</v>
@@ -1739,11 +1766,11 @@
       <c r="B48" s="6">
         <v>70</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>45</v>
+      <c r="C48" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
       </c>
       <c r="E48" t="s">
         <v>35</v>
@@ -1762,11 +1789,11 @@
       <c r="B49" s="6">
         <v>71</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>45</v>
+      <c r="C49" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
       </c>
       <c r="E49" t="s">
         <v>38</v>
@@ -1785,11 +1812,11 @@
       <c r="B50" s="6">
         <v>112</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>54</v>
+      <c r="C50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>47</v>
       </c>
       <c r="E50" t="s">
         <v>39</v>
@@ -1808,11 +1835,11 @@
       <c r="B51" s="6">
         <v>118</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>54</v>
+      <c r="C51" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" t="s">
+        <v>47</v>
       </c>
       <c r="E51" t="s">
         <v>40</v>
